--- a/Java789新特性.xlsx
+++ b/Java789新特性.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="新技术" sheetId="6" r:id="rId1"/>
-    <sheet name="版本发布时间列表" sheetId="4" r:id="rId2"/>
-    <sheet name="simple" sheetId="5" r:id="rId3"/>
-    <sheet name="Java9" sheetId="1" r:id="rId4"/>
-    <sheet name="Java8" sheetId="2" r:id="rId5"/>
-    <sheet name="Java7" sheetId="3" r:id="rId6"/>
+    <sheet name="IDEA使用教程" sheetId="7" r:id="rId1"/>
+    <sheet name="新技术" sheetId="6" r:id="rId2"/>
+    <sheet name="版本发布时间列表" sheetId="4" r:id="rId3"/>
+    <sheet name="simple" sheetId="5" r:id="rId4"/>
+    <sheet name="Java9" sheetId="1" r:id="rId5"/>
+    <sheet name="Java8" sheetId="2" r:id="rId6"/>
+    <sheet name="Java7" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">版本发布时间列表!$B$1:$B$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">版本发布时间列表!$B$1:$B$19</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -601,17 +602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>除了这十大新特性之外，还有另外的一些新特性：
-更好的类型推测机制：Java 8在类型推测方面有了很大的提高，这就使代码更整洁，不需要太多的强制类型转换了。
-编译器优化：Java 8将方法的参数名加入了字节码中，这样在运行时通过反射就能获取到参数名，只需要在编译时使用-parameters参数。
-并行（parallel）数组：支持对数组进行并行处理，主要是parallelSort()方法，它可以在多核机器上极大提高数组排序的速度。
-并发（Concurrency）：在新增Stream机制与Lambda的基础之上，加入了一些新方法来支持聚集操作。
-Nashorn引擎jjs：基于Nashorn引擎的命令行工具。它接受一些JavaScript源代码为参数，并且执行这些源代码。
-类依赖分析器jdeps：可以显示Java类的包级别或类级别的依赖。
-JVM的PermGen空间被移除：取代它的是Metaspace（JEP 122）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Java8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1042,6 +1032,17 @@
         }
     }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了这十大新特性之外，还有另外的一些新特性：
+更好的类型推测机制：Java 8在类型推测方面有了很大的提高，这就使代码更整洁，不需要太多的强制类型转换了。
+编译器优化：Java 8将方法的参数名加入了字节码中，这样在运行时通过反射就能获取到参数名，只需要在编译时使用-parameters参数。
+并行（parallel）数组：支持对数组进行并行处理，主要是parallelSort()方法，它可以在多核机器上极大提高数组排序的速度。
+并发（Concurrency）：在新增Stream机制与Lambda的基础之上，加入了一些新方法来支持聚集操作。
+Nashorn引擎jjs：基于Nashorn引擎的命令行工具。它接受一些JavaScript源代码为参数，并且执行这些源代码。
+类依赖分析器jdeps：可以显示Java类的包级别或类级别的依赖。
+JVM的PermGen空间被移除：取代它的是Metaspace（JEP 122）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1569,9 +1570,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1584,19 +1599,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>119</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="81">
@@ -1604,44 +1619,44 @@
         <v>43022</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1652,10 +1667,10 @@
         <v>43006</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1663,16 +1678,16 @@
     <row r="7" spans="1:5" ht="27">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1785,7 +1800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C19"/>
   <sheetViews>
@@ -1894,7 +1909,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1904,12 +1919,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1921,37 +1936,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25">
       <c r="A4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25">
       <c r="A5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25">
       <c r="A6" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25">
       <c r="A7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25">
       <c r="A8" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25">
@@ -1964,32 +1979,32 @@
     </row>
     <row r="11" spans="1:1" ht="14.25">
       <c r="A11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25">
       <c r="A12" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25">
       <c r="A16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25">
@@ -1999,60 +2014,60 @@
     </row>
     <row r="19" spans="1:2" ht="14.25">
       <c r="A19" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25">
       <c r="A20" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25">
       <c r="A21" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="54">
       <c r="A22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="108">
       <c r="A23" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25">
       <c r="A24" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="162">
       <c r="A25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25">
       <c r="A26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25">
@@ -2062,57 +2077,57 @@
     </row>
     <row r="29" spans="1:2" ht="14.25">
       <c r="A29" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25">
       <c r="A30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25">
       <c r="A31" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25">
       <c r="A33" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25">
       <c r="A34" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25">
       <c r="A35" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25">
       <c r="A36" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25">
       <c r="A37" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25">
       <c r="A38" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25">
       <c r="A39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.25">
@@ -2122,67 +2137,67 @@
     </row>
     <row r="42" spans="1:1" ht="14.25">
       <c r="A42" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.25">
       <c r="A43" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.25">
       <c r="A44" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.25">
       <c r="A45" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.25">
       <c r="A46" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.25">
       <c r="A47" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.25">
       <c r="A48" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25">
       <c r="A49" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25">
       <c r="A50" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="297">
       <c r="B57" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2197,12 +2212,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2216,7 +2231,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2435,12 +2450,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2451,10 +2466,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2568,7 +2583,7 @@
     </row>
     <row r="23" spans="1:2" ht="202.5">
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2576,7 +2591,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1"/>
     </row>
@@ -2600,7 +2615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2616,127 +2631,127 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" ht="94.5">
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="108">
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="121.5">
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="67.5">
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="67.5">
       <c r="B23" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="54">
       <c r="B25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
